--- a/verif_results/no_exact/datos_verificacion_softplus_1como2.xlsx
+++ b/verif_results/no_exact/datos_verificacion_softplus_1como2.xlsx
@@ -437,10 +437,10 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>8.25983715057373</v>
+        <v>9.227320909500122</v>
       </c>
       <c r="F1" t="n">
-        <v>2819</v>
+        <v>3317</v>
       </c>
       <c r="G1" t="n">
         <v>0</v>
@@ -461,10 +461,10 @@
         </is>
       </c>
       <c r="K1" t="n">
-        <v>8.124727725982666</v>
+        <v>7.670102596282959</v>
       </c>
       <c r="L1" t="n">
-        <v>2633</v>
+        <v>2556</v>
       </c>
       <c r="M1" t="n">
         <v>0</v>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103.9513413906097</v>
+        <v>113.6608326435089</v>
       </c>
       <c r="F2" t="n">
-        <v>31237</v>
+        <v>29873</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>111.1860463619232</v>
+        <v>117.4297044277191</v>
       </c>
       <c r="L2" t="n">
-        <v>32824</v>
+        <v>32149</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100.1647663116455</v>
+        <v>110.8553717136383</v>
       </c>
       <c r="F3" t="n">
-        <v>43401</v>
+        <v>34995</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -579,10 +579,10 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>119.1299700737</v>
+        <v>107.3559868335724</v>
       </c>
       <c r="L3" t="n">
-        <v>52197</v>
+        <v>40092</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>900.0014717578888</v>
+        <v>900.0013358592987</v>
       </c>
       <c r="F4" t="n">
-        <v>118451</v>
+        <v>124255</v>
       </c>
       <c r="G4" t="n">
-        <v>726.1010009796394</v>
+        <v>887.3577613330126</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>900.001321554184</v>
+        <v>900.0013055801392</v>
       </c>
       <c r="L4" t="n">
-        <v>116202</v>
+        <v>112199</v>
       </c>
       <c r="M4" t="n">
-        <v>583.547115676563</v>
+        <v>430.0228903306416</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80.44530081748962</v>
+        <v>101.3546240329742</v>
       </c>
       <c r="F5" t="n">
-        <v>25298</v>
+        <v>31065</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -697,13 +697,13 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>76.38995122909546</v>
+        <v>82.63161587715149</v>
       </c>
       <c r="L5" t="n">
-        <v>21932</v>
+        <v>25430</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02380226152149933</v>
+        <v>0</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>optimal</t>
         </is>
       </c>
     </row>
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>62.65396094322205</v>
+        <v>106.5786945819855</v>
       </c>
       <c r="F6" t="n">
-        <v>4811</v>
+        <v>8394</v>
       </c>
       <c r="G6" t="n">
-        <v>66.46837927222023</v>
+        <v>58.28279632279303</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -756,13 +756,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>290.3125121593475</v>
+        <v>118.6818509101868</v>
       </c>
       <c r="L6" t="n">
-        <v>27965</v>
+        <v>8719</v>
       </c>
       <c r="M6" t="n">
-        <v>36.97816282303602</v>
+        <v>59.38478361026034</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -791,13 +791,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>900.0015506744385</v>
+        <v>900.0016241073608</v>
       </c>
       <c r="F7" t="n">
-        <v>141460</v>
+        <v>138040</v>
       </c>
       <c r="G7" t="n">
-        <v>1.142701730435403</v>
+        <v>1.833715310907035</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -815,13 +815,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>900.0015733242035</v>
+        <v>900.0015351772308</v>
       </c>
       <c r="L7" t="n">
-        <v>150725</v>
+        <v>133907</v>
       </c>
       <c r="M7" t="n">
-        <v>1.546932284878927</v>
+        <v>1.946458106013885</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>118.8824286460876</v>
+        <v>351.9834070205688</v>
       </c>
       <c r="F8" t="n">
-        <v>5359</v>
+        <v>20714</v>
       </c>
       <c r="G8" t="n">
-        <v>110.6978046279031</v>
+        <v>111.1369127006245</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -874,13 +874,13 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>900.0004508495331</v>
+        <v>900.0008943080902</v>
       </c>
       <c r="L8" t="n">
-        <v>554</v>
+        <v>52757</v>
       </c>
       <c r="M8" t="n">
-        <v>109.3128324738147</v>
+        <v>121.1914024466598</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -909,13 +909,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>41.89181351661682</v>
+        <v>230.4698379039764</v>
       </c>
       <c r="F9" t="n">
-        <v>3775</v>
+        <v>23784</v>
       </c>
       <c r="G9" t="n">
-        <v>40.15212946712244</v>
+        <v>10.00501269167587</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>36.81383061408997</v>
+        <v>63.71240496635437</v>
       </c>
       <c r="L9" t="n">
-        <v>2945</v>
+        <v>5037</v>
       </c>
       <c r="M9" t="n">
-        <v>34.85170743917269</v>
+        <v>28.3786851675484</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -968,13 +968,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>132.685046672821</v>
+        <v>65.67359972000122</v>
       </c>
       <c r="F10" t="n">
-        <v>5054</v>
+        <v>2293</v>
       </c>
       <c r="G10" t="n">
-        <v>81.30519481785183</v>
+        <v>82.81021619741598</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -992,13 +992,13 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>63.67239546775818</v>
+        <v>44.7443675994873</v>
       </c>
       <c r="L10" t="n">
-        <v>2724</v>
+        <v>1860</v>
       </c>
       <c r="M10" t="n">
-        <v>80.84244598682653</v>
+        <v>82.98620335598558</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1027,13 +1027,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>797.66343998909</v>
+        <v>900.0013349056244</v>
       </c>
       <c r="F11" t="n">
-        <v>37422</v>
+        <v>58393</v>
       </c>
       <c r="G11" t="n">
-        <v>153.2821368939607</v>
+        <v>29.5520702259866</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>timelimit</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>900.0009729862213</v>
+        <v>900.0009696483612</v>
       </c>
       <c r="L11" t="n">
-        <v>56285</v>
+        <v>56122</v>
       </c>
       <c r="M11" t="n">
-        <v>23.72457859492075</v>
+        <v>105.6152808104654</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1086,13 +1086,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>900.0005950927734</v>
+        <v>900.0008537769318</v>
       </c>
       <c r="F12" t="n">
-        <v>17589</v>
+        <v>20637</v>
       </c>
       <c r="G12" t="n">
-        <v>95.02678529855548</v>
+        <v>95.3907124618441</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>896.640008687973</v>
+        <v>900.0006625652313</v>
       </c>
       <c r="L12" t="n">
-        <v>14855</v>
+        <v>21408</v>
       </c>
       <c r="M12" t="n">
-        <v>95.18765421517654</v>
+        <v>94.91998146448685</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>timelimit</t>
         </is>
       </c>
     </row>
